--- a/biology/Zoologie/Acrumena_massiliensis/Acrumena_massiliensis.xlsx
+++ b/biology/Zoologie/Acrumena_massiliensis/Acrumena_massiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrumena massiliensis, unique représentant du genre Acrumena , est une espèce de vers plats marins de la famille des Cicerinidae. Cette espèce a été identifiée en mer Méditerranée, près de l'Île de Riou et de l'Île Jarre (Bouches-du-Rhône), et au large de Bergen en Norvège.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +551,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms valides complets (avec auteur) de ces taxons sont[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms valides complets (avec auteur) de ces taxons sont :
 pour le genre : Acrumena Brunet, 1965,
 pour l'unique espèce du genre : Acrumena massiliensis Brunet, 1965.
-Le genre Acrumena a été classé en 1980 par Karling dans la famille monospécifique des Acrumenidae. Cette famille a ensuite été déplacée à l'intérieur de la famille des Cicerinidae en tant que sous-famille des Acrumeninae[1].
+Le genre Acrumena a été classé en 1980 par Karling dans la famille monospécifique des Acrumenidae. Cette famille a ensuite été déplacée à l'intérieur de la famille des Cicerinidae en tant que sous-famille des Acrumeninae.
 </t>
         </is>
       </c>
